--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2396098.511011158</v>
+        <v>2395573.328642126</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>322.5513054085288</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>349.0301907609218</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>32.25330151855912</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>82.66429228992064</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>283.1855649829867</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>286.1398096286954</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1110,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>193.1379244272089</v>
+        <v>28.64436039545914</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>208.1042502159521</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>131.679365501134</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>27.07950026194673</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>135.1077460700513</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1669,10 +1669,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430768</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>131.5141848153389</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.21215624113674</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>114.4749582105918</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>154.7429394224636</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,10 +3009,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.0131344328856</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>28.46824604904392</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>94.431236732152</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>136.1614161296816</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.92574903168972</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>81.01098805494593</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.2911052642175</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1890364880448</v>
+        <v>1216.618961230547</v>
       </c>
       <c r="D2" t="n">
-        <v>489.3196557028934</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
         <v>34.36045797446834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1001.753505337916</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1000.938454789353</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>985.8363954090679</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.5502717087213</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.6761595537199</v>
+        <v>681.756833151444</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4518,22 +4518,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>1397.332608038895</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W4" t="n">
-        <v>1125.306203625186</v>
+        <v>1346.38687722291</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9144489585988</v>
+        <v>1100.995122556323</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.494778272707</v>
+        <v>873.5754518704312</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>745.5581716674739</v>
+        <v>1786.126818664106</v>
       </c>
       <c r="C5" t="n">
-        <v>711.4561028913013</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>679.5867221061499</v>
+        <v>912.0745610219743</v>
       </c>
       <c r="E5" t="n">
-        <v>649.8523813048491</v>
+        <v>478.2998161802695</v>
       </c>
       <c r="F5" t="n">
-        <v>626.025355754461</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947715</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947715</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947715</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726466</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726466</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717426</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762206</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.4652647208</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657694</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530733</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.67792584775</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="V5" t="n">
-        <v>1596.060975781576</v>
+        <v>2232.589218737804</v>
       </c>
       <c r="W5" t="n">
-        <v>1191.205521192609</v>
+        <v>2231.774168189242</v>
       </c>
       <c r="X5" t="n">
-        <v>1176.103461812324</v>
+        <v>2216.672108808957</v>
       </c>
       <c r="Y5" t="n">
-        <v>767.8173381119776</v>
+        <v>2212.426389149014</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
         <v>355.0573815639655</v>
@@ -4634,34 +4634,34 @@
         <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326467</v>
+        <v>92.16803877326474</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947715</v>
+        <v>76.49605974993482</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947715</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947715</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947715</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947715</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970911</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970911</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>956.9288356845835</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
         <v>956.9288356845835</v>
@@ -4710,67 +4710,67 @@
         <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>621.2928391368436</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244274</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2498.899221627944</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179229</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477226</v>
+        <v>2340.960139477229</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055681</v>
+        <v>2095.080693055684</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308786</v>
+        <v>2095.080693055684</v>
       </c>
       <c r="V7" t="n">
-        <v>1621.55887975605</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1621.55887975605</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1376.167125089462</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1148.747454403571</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1456.941072251152</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.798599434575</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>986.9292186494238</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E8" t="n">
-        <v>553.1544738077189</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,19 +4804,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>2306.628825816691</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>1887.486362396002</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1479.200238695656</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019.910233398507</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>847.3485218817324</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4705290832551</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>511.7125253339923</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>335.0054712957485</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>169.4141963215762</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4995,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.148522803386</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211.728852117495</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5041,37 +5041,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>211.240503094076</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>211.240503094076</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U11" t="n">
         <v>4550.100609912873</v>
@@ -5080,7 +5080,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5117,28 +5117,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.1554751127505</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>809.5937635959755</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
         <v>463.598980006605</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5284,25 +5284,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5317,7 +5317,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5336,16 +5336,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K16" t="n">
         <v>463.598980006605</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2159.539202830818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1872.583694701248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1600.55729028754</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5503,7 +5503,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004233</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>3754.427247034659</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K18" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.147416666039</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>843.1660143917135</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>677.2880215932362</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439735</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057297</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K19" t="n">
         <v>463.598980006605</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5758,13 +5758,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.913654892426</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5794,10 +5794,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.728611060351</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1454.96690046523</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1227.547229779338</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>228.524776110223</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7016,7 +7016,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>473.3149733731391</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>296.6079193348953</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>131.016644360723</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7216,10 +7216,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>451.897152078511</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>451.897152078511</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>286.3058771043387</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7411,16 +7411,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7456,7 +7456,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.819165236992</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>426.819165236992</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>426.819165236992</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>426.819165236992</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>426.819165236992</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1246.54233171619</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2701.823733979953</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2455.944287558408</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2177.511286811513</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1890.555778681944</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.529374268236</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,28 +7651,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7687,7 +7687,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7727,25 +7727,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
         <v>463.598980006605</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>296.9562613211783</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>512.4570950335045</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684643</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>385.0780411188019</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388476056</v>
+        <v>110.4038313238443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0804674982791</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>315.3936483072348</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,19 +8932,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5169886652538</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N20" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>353.221552644422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1050.672356668189</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463134</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>524.2002727610084</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>29.11146680044124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>144.1344859240868</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.9333177378961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>56.36113619101552</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>110.0349065174853</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>44.07191583437722</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475776.4271812745</v>
+        <v>475776.4271812743</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>475776.4271812745</v>
+        <v>475776.4271812744</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
+        <v>536147.3198904084</v>
+      </c>
+      <c r="D2" t="n">
         <v>536147.3198904083</v>
-      </c>
-      <c r="D2" t="n">
-        <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
         <v>526857.5841373522</v>
@@ -26328,7 +26328,7 @@
         <v>526857.5841373522</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373522</v>
@@ -26340,10 +26340,10 @@
         <v>526857.5841373521</v>
       </c>
       <c r="K2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
-        <v>526857.584137352</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
         <v>526857.5841373522</v>
@@ -26352,10 +26352,10 @@
         <v>526857.5841373522</v>
       </c>
       <c r="O2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.7678950164</v>
+        <v>66587.76789501669</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998254</v>
+        <v>11527.59554998227</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.8546387727</v>
+        <v>53045.85463877293</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622127</v>
+        <v>9392.301726621903</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924761</v>
+        <v>171472.7657924759</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81439.57146904281</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="H4" t="n">
         <v>81439.57146904283</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81439.57146904283</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81439.5714690428</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26453,10 +26453,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
         <v>81439.5714690428</v>
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,7 +26502,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26511,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128570.2582516093</v>
+        <v>128570.2582516092</v>
       </c>
       <c r="C6" t="n">
-        <v>226130.5723949132</v>
+        <v>226130.5723949131</v>
       </c>
       <c r="D6" t="n">
-        <v>285144.1115191098</v>
+        <v>285144.11151911</v>
       </c>
       <c r="E6" t="n">
-        <v>185344.6648414672</v>
+        <v>185321.4405020847</v>
       </c>
       <c r="F6" t="n">
-        <v>367699.7740625169</v>
+        <v>367676.5497231343</v>
       </c>
       <c r="G6" t="n">
-        <v>367699.774062517</v>
+        <v>367676.5497231343</v>
       </c>
       <c r="H6" t="n">
-        <v>367699.7740625169</v>
+        <v>367676.549723134</v>
       </c>
       <c r="I6" t="n">
-        <v>367699.7740625168</v>
+        <v>367676.5497231342</v>
       </c>
       <c r="J6" t="n">
-        <v>256685.3087175266</v>
+        <v>256662.0843781439</v>
       </c>
       <c r="K6" t="n">
-        <v>314653.919423744</v>
+        <v>314630.6950843613</v>
       </c>
       <c r="L6" t="n">
-        <v>358307.4723358945</v>
+        <v>358284.2479965123</v>
       </c>
       <c r="M6" t="n">
-        <v>215499.6031245292</v>
+        <v>215476.3787851467</v>
       </c>
       <c r="N6" t="n">
-        <v>367699.7740625169</v>
+        <v>367676.5497231342</v>
       </c>
       <c r="O6" t="n">
-        <v>367699.774062517</v>
+        <v>367676.5497231341</v>
       </c>
       <c r="P6" t="n">
-        <v>367699.774062517</v>
+        <v>367676.5497231343</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939266</v>
+        <v>37.11037423939177</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939266</v>
+        <v>37.11037423939177</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939266</v>
+        <v>37.11037423939177</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27384,16 +27384,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>108.9993815687711</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>9.960589804589972</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>138.5827928830482</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>186.6418480796507</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,76 +27615,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="H5" t="n">
+        <v>286.2388530112159</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4126214791313976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>82.81535507800136</v>
+      </c>
+      <c r="T5" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U5" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V5" t="n">
+        <v>72.85097093681628</v>
+      </c>
+      <c r="W5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>114.198288079982</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>90.94802862106494</v>
+        <v>255.4415926528147</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>215.4845050789322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>124.9507141550193</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.410283467066494e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>296.9562613211783</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>512.4570950335045</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684643</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>385.0780411188019</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388476056</v>
+        <v>110.4038313238443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0804674982791</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>315.3936483072348</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,19 +35652,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5169886652538</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N20" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>353.221552644422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1050.672356668189</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463134</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>524.2002727610084</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38095,7 +38095,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
